--- a/data/trans_orig/P21D6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D6D08B8-00E2-4CB5-9F0A-3D78E779F267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59BE872B-CACE-400B-91A5-2106337D494D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE1600B7-C0DE-4152-8B54-DD6B6D051B7C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA4BA07A-E5D7-4DDF-BEDA-56A9237DE937}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="207">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 43,82%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="210">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>79,78%</t>
   </si>
   <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>20,22%</t>
   </si>
   <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -158,502 +158,511 @@
     <t>92,96%</t>
   </si>
   <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>91,55%</t>
   </si>
   <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
   </si>
   <si>
     <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1068,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48B2837-C55D-46EA-B277-9E68E9E9D484}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E369767C-0222-40C6-B132-16DCDA5E11A9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1557,7 +1566,7 @@
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1566,13 +1575,13 @@
         <v>654</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1581,13 +1590,13 @@
         <v>3438</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,13 +1611,13 @@
         <v>1733</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -1617,13 +1626,13 @@
         <v>2428</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -1632,13 +1641,13 @@
         <v>4161</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,7 +1703,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1706,13 +1715,13 @@
         <v>396928</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>605</v>
@@ -1721,13 +1730,13 @@
         <v>426484</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>997</v>
@@ -1736,13 +1745,13 @@
         <v>823412</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,13 +1766,13 @@
         <v>84310</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" s="7">
         <v>72</v>
@@ -1772,13 +1781,13 @@
         <v>52438</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M15" s="7">
         <v>100</v>
@@ -1787,13 +1796,13 @@
         <v>136749</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1817,13 @@
         <v>2292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -1823,13 +1832,13 @@
         <v>13888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -1838,13 +1847,13 @@
         <v>16181</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,13 +1868,13 @@
         <v>2324</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1874,13 +1883,13 @@
         <v>3874</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -1889,13 +1898,13 @@
         <v>6197</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,7 +1960,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1963,13 +1972,13 @@
         <v>286357</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>407</v>
@@ -1978,13 +1987,13 @@
         <v>297279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>678</v>
@@ -1993,13 +2002,13 @@
         <v>583636</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,10 +2107,10 @@
         <v>131</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2125,13 @@
         <v>2019</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2131,13 +2140,13 @@
         <v>3258</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2146,13 +2155,13 @@
         <v>5277</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,7 +2217,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2220,13 +2229,13 @@
         <v>364263</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H24" s="7">
         <v>566</v>
@@ -2235,13 +2244,13 @@
         <v>446050</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M24" s="7">
         <v>933</v>
@@ -2250,13 +2259,13 @@
         <v>810313</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2280,13 @@
         <v>50292</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -2286,13 +2295,13 @@
         <v>51259</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -2301,13 +2310,13 @@
         <v>101551</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2331,13 @@
         <v>6486</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2337,13 +2346,13 @@
         <v>3235</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -2352,7 +2361,7 @@
         <v>9721</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>165</v>
@@ -2376,10 +2385,10 @@
         <v>167</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H27" s="7">
         <v>16</v>
@@ -2388,13 +2397,13 @@
         <v>11904</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -2403,13 +2412,13 @@
         <v>14684</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,13 +2486,13 @@
         <v>1293273</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>2044</v>
@@ -2492,13 +2501,13 @@
         <v>1462081</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>3346</v>
@@ -2507,13 +2516,13 @@
         <v>2755355</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2537,13 @@
         <v>183888</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H30" s="7">
         <v>240</v>
@@ -2543,13 +2552,13 @@
         <v>159254</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M30" s="7">
         <v>362</v>
@@ -2558,13 +2567,13 @@
         <v>343142</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2588,13 @@
         <v>30585</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H31" s="7">
         <v>57</v>
@@ -2594,13 +2603,13 @@
         <v>40486</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M31" s="7">
         <v>83</v>
@@ -2609,13 +2618,13 @@
         <v>71071</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2639,13 @@
         <v>8856</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -2645,13 +2654,13 @@
         <v>21465</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M32" s="7">
         <v>40</v>
@@ -2660,13 +2669,13 @@
         <v>30320</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,7 +2731,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59BE872B-CACE-400B-91A5-2106337D494D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78C1C27A-8490-4D10-9458-04198BE0B3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA4BA07A-E5D7-4DDF-BEDA-56A9237DE937}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D07096AE-6E40-4432-B355-91D6E37F6EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
@@ -152,7 +152,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>92,96%</t>
@@ -251,7 +251,7 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>81,7%</t>
@@ -359,7 +359,7 @@
     <t>1,23%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>85,47%</t>
@@ -1077,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E369767C-0222-40C6-B132-16DCDA5E11A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740DACC8-8D65-4977-9DA4-22EF538ABC85}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78C1C27A-8490-4D10-9458-04198BE0B3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{542709ED-404C-4A49-9A08-03669BFCF959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D07096AE-6E40-4432-B355-91D6E37F6EAE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97E9CC85-938E-49DF-9062-AC4BFD8DF56D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="207">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>79,78%</t>
   </si>
   <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>20,22%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -158,79 +158,76 @@
     <t>92,96%</t>
   </si>
   <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>91,55%</t>
   </si>
   <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,25%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>3,69%</t>
+    <t>4,0%</t>
   </si>
   <si>
     <t>0,9%</t>
@@ -239,16 +236,16 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>2,29%</t>
+    <t>2,34%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -257,55 +254,55 @@
     <t>81,7%</t>
   </si>
   <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>85,87%</t>
   </si>
   <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>17,35%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
   </si>
   <si>
     <t>10,56%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
   </si>
   <si>
     <t>0,47%</t>
@@ -314,355 +311,349 @@
     <t>0,11%</t>
   </si>
   <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>85,27%</t>
   </si>
   <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>86,86%</t>
   </si>
   <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
   </si>
   <si>
     <t>86,11%</t>
   </si>
   <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
   </si>
   <si>
     <t>12,13%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
   </si>
   <si>
     <t>9,46%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>10,72%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>15,45%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>2,84%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
     <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1077,7 +1068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740DACC8-8D65-4977-9DA4-22EF538ABC85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D10089F-CABE-4029-BA4B-230C3A6BA700}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1566,7 +1557,7 @@
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1575,13 +1566,13 @@
         <v>654</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1590,13 +1581,13 @@
         <v>3438</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1602,13 @@
         <v>1733</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -1626,13 +1617,13 @@
         <v>2428</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -1641,13 +1632,13 @@
         <v>4161</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,7 +1694,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1715,13 +1706,13 @@
         <v>396928</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>605</v>
@@ -1730,13 +1721,13 @@
         <v>426484</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>997</v>
@@ -1745,13 +1736,13 @@
         <v>823412</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,13 +1757,13 @@
         <v>84310</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H15" s="7">
         <v>72</v>
@@ -1781,13 +1772,13 @@
         <v>52438</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M15" s="7">
         <v>100</v>
@@ -1796,13 +1787,13 @@
         <v>136749</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,13 +1808,13 @@
         <v>2292</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -1832,13 +1823,13 @@
         <v>13888</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -1847,13 +1838,13 @@
         <v>16181</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,13 +1859,13 @@
         <v>2324</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1883,13 +1874,13 @@
         <v>3874</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -1898,13 +1889,13 @@
         <v>6197</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,7 +1951,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1972,13 +1963,13 @@
         <v>286357</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>407</v>
@@ -1987,13 +1978,13 @@
         <v>297279</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>678</v>
@@ -2002,13 +1993,13 @@
         <v>583636</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,10 +2098,10 @@
         <v>131</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,13 +2116,13 @@
         <v>2019</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2140,13 +2131,13 @@
         <v>3258</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2155,13 +2146,13 @@
         <v>5277</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,7 +2208,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2229,13 +2220,13 @@
         <v>364263</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H24" s="7">
         <v>566</v>
@@ -2244,13 +2235,13 @@
         <v>446050</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M24" s="7">
         <v>933</v>
@@ -2259,13 +2250,13 @@
         <v>810313</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,13 +2271,13 @@
         <v>50292</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -2295,13 +2286,13 @@
         <v>51259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -2310,13 +2301,13 @@
         <v>101551</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2322,13 @@
         <v>6486</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2346,13 +2337,13 @@
         <v>3235</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -2361,7 +2352,7 @@
         <v>9721</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>165</v>
@@ -2385,10 +2376,10 @@
         <v>167</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H27" s="7">
         <v>16</v>
@@ -2397,13 +2388,13 @@
         <v>11904</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -2412,13 +2403,13 @@
         <v>14684</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2477,13 @@
         <v>1293273</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>2044</v>
@@ -2501,13 +2492,13 @@
         <v>1462081</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>3346</v>
@@ -2516,13 +2507,13 @@
         <v>2755355</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2528,13 @@
         <v>183888</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H30" s="7">
         <v>240</v>
@@ -2552,13 +2543,13 @@
         <v>159254</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M30" s="7">
         <v>362</v>
@@ -2567,13 +2558,13 @@
         <v>343142</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2579,13 @@
         <v>30585</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H31" s="7">
         <v>57</v>
@@ -2603,13 +2594,13 @@
         <v>40486</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M31" s="7">
         <v>83</v>
@@ -2618,13 +2609,13 @@
         <v>71071</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2630,13 @@
         <v>8856</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -2654,13 +2645,13 @@
         <v>21465</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M32" s="7">
         <v>40</v>
@@ -2669,13 +2660,13 @@
         <v>30320</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,7 +2722,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{542709ED-404C-4A49-9A08-03669BFCF959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49A6ED23-2123-4305-9BC9-63321AE44A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97E9CC85-938E-49DF-9062-AC4BFD8DF56D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9637FDB1-D8A8-4990-943C-99AF037A65DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="182">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -65,595 +65,520 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
   </si>
   <si>
+    <t>1,05%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1068,8 +993,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D10089F-CABE-4029-BA4B-230C3A6BA700}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1F3FF6-4D11-47B7-A969-99DCDBE12C9C}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1186,10 +1111,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>52</v>
+        <v>272</v>
       </c>
       <c r="D4" s="7">
-        <v>42595</v>
+        <v>240394</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1201,10 +1126,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="I4" s="7">
-        <v>43945</v>
+        <v>272700</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1216,10 +1141,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>134</v>
+        <v>738</v>
       </c>
       <c r="N4" s="7">
-        <v>86539</v>
+        <v>513094</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1237,10 +1162,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>10799</v>
+        <v>21647</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1252,10 +1177,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7">
-        <v>4577</v>
+        <v>23540</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1267,10 +1192,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="N5" s="7">
-        <v>15376</v>
+        <v>45187</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1288,10 +1213,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>2802</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1303,85 +1228,85 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>3425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1756</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2266</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>4022</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1390,102 +1315,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="D8" s="7">
-        <v>53394</v>
+        <v>266599</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
-        <v>90</v>
+        <v>515</v>
       </c>
       <c r="I8" s="7">
-        <v>48522</v>
+        <v>299129</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>150</v>
+        <v>809</v>
       </c>
       <c r="N8" s="7">
-        <v>101915</v>
+        <v>565727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>220</v>
+        <v>392</v>
       </c>
       <c r="D9" s="7">
-        <v>203130</v>
+        <v>375504</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>384</v>
+        <v>605</v>
       </c>
       <c r="I9" s="7">
-        <v>248324</v>
+        <v>382230</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
-        <v>604</v>
+        <v>997</v>
       </c>
       <c r="N9" s="7">
-        <v>451454</v>
+        <v>757734</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1494,49 +1419,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>10861</v>
+        <v>277673</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I10" s="7">
-        <v>19831</v>
+        <v>47684</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="N10" s="7">
-        <v>30692</v>
+        <v>325357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,100 +1470,100 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>2784</v>
+        <v>2158</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>654</v>
+        <v>13159</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="N11" s="7">
-        <v>3438</v>
+        <v>15317</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>1733</v>
+        <v>2276</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>2428</v>
+        <v>3699</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>4161</v>
+        <v>5975</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,102 +1572,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>234</v>
+        <v>425</v>
       </c>
       <c r="D13" s="7">
-        <v>218509</v>
+        <v>657610</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>425</v>
+        <v>704</v>
       </c>
       <c r="I13" s="7">
-        <v>271237</v>
+        <v>446772</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
-        <v>659</v>
+        <v>1129</v>
       </c>
       <c r="N13" s="7">
-        <v>489746</v>
+        <v>1104382</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>392</v>
+        <v>271</v>
       </c>
       <c r="D14" s="7">
-        <v>396928</v>
+        <v>282259</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
-        <v>605</v>
+        <v>407</v>
       </c>
       <c r="I14" s="7">
-        <v>426484</v>
+        <v>275408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
-        <v>997</v>
+        <v>678</v>
       </c>
       <c r="N14" s="7">
-        <v>823412</v>
+        <v>557667</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,49 +1676,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" s="7">
-        <v>84310</v>
+        <v>27240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H15" s="7">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>52438</v>
+        <v>29395</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="M15" s="7">
+        <v>71</v>
+      </c>
+      <c r="N15" s="7">
+        <v>56636</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="N15" s="7">
-        <v>136749</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="Q15" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,100 +1727,100 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>2292</v>
+        <v>18428</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>13888</v>
+        <v>21007</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N16" s="7">
-        <v>16181</v>
+        <v>39435</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>2324</v>
+        <v>1881</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3014</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="7">
         <v>7</v>
       </c>
-      <c r="I17" s="7">
-        <v>3874</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M17" s="7">
-        <v>9</v>
-      </c>
       <c r="N17" s="7">
-        <v>6197</v>
+        <v>4895</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,102 +1829,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>425</v>
+        <v>313</v>
       </c>
       <c r="D18" s="7">
-        <v>485854</v>
+        <v>329808</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
-        <v>704</v>
+        <v>488</v>
       </c>
       <c r="I18" s="7">
-        <v>496684</v>
+        <v>328824</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
-        <v>1129</v>
+        <v>801</v>
       </c>
       <c r="N18" s="7">
-        <v>982539</v>
+        <v>658632</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>271</v>
+        <v>367</v>
       </c>
       <c r="D19" s="7">
-        <v>286357</v>
+        <v>349867</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7">
-        <v>407</v>
+        <v>566</v>
       </c>
       <c r="I19" s="7">
-        <v>297279</v>
+        <v>456175</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
-        <v>678</v>
+        <v>933</v>
       </c>
       <c r="N19" s="7">
-        <v>583636</v>
+        <v>806043</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,49 +1933,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D20" s="7">
-        <v>27626</v>
+        <v>49571</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="I20" s="7">
-        <v>31148</v>
+        <v>47746</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="N20" s="7">
-        <v>58774</v>
+        <v>97316</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,100 +1984,100 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D21" s="7">
-        <v>19022</v>
+        <v>5830</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>22709</v>
+        <v>3079</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="N21" s="7">
-        <v>41731</v>
+        <v>8909</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>2019</v>
+        <v>2685</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I22" s="7">
-        <v>3258</v>
+        <v>10942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N22" s="7">
-        <v>5277</v>
+        <v>13627</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,102 +2086,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>313</v>
+        <v>426</v>
       </c>
       <c r="D23" s="7">
-        <v>335024</v>
+        <v>407953</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
-        <v>488</v>
+        <v>666</v>
       </c>
       <c r="I23" s="7">
-        <v>354395</v>
+        <v>517942</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
-        <v>801</v>
+        <v>1092</v>
       </c>
       <c r="N23" s="7">
-        <v>689419</v>
+        <v>925895</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>367</v>
+        <v>1302</v>
       </c>
       <c r="D24" s="7">
-        <v>364263</v>
+        <v>1248024</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
-        <v>566</v>
+        <v>2044</v>
       </c>
       <c r="I24" s="7">
-        <v>446050</v>
+        <v>1386513</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
-        <v>933</v>
+        <v>3346</v>
       </c>
       <c r="N24" s="7">
-        <v>810313</v>
+        <v>2634537</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,49 +2190,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="D25" s="7">
-        <v>50292</v>
+        <v>376130</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="I25" s="7">
-        <v>51259</v>
+        <v>148365</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
-        <v>128</v>
+        <v>362</v>
       </c>
       <c r="N25" s="7">
-        <v>101551</v>
+        <v>524495</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,100 +2241,100 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D26" s="7">
-        <v>6486</v>
+        <v>29217</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="I26" s="7">
-        <v>3235</v>
+        <v>37868</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="N26" s="7">
-        <v>9721</v>
+        <v>67086</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D27" s="7">
-        <v>2780</v>
+        <v>8597</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H27" s="7">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I27" s="7">
-        <v>11904</v>
+        <v>19921</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M27" s="7">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N27" s="7">
-        <v>14684</v>
+        <v>28518</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,319 +2343,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>426</v>
+        <v>1458</v>
       </c>
       <c r="D28" s="7">
-        <v>423821</v>
+        <v>1661969</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
-        <v>666</v>
+        <v>2373</v>
       </c>
       <c r="I28" s="7">
-        <v>512448</v>
+        <v>1592667</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
-        <v>1092</v>
+        <v>3831</v>
       </c>
       <c r="N28" s="7">
-        <v>936269</v>
+        <v>3254636</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1302</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1293273</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2044</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1462081</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M29" s="7">
-        <v>3346</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2755355</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P29" s="7" t="s">
+      <c r="A29" t="s">
         <v>181</v>
       </c>
-      <c r="Q29" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>122</v>
-      </c>
-      <c r="D30" s="7">
-        <v>183888</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H30" s="7">
-        <v>240</v>
-      </c>
-      <c r="I30" s="7">
-        <v>159254</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M30" s="7">
-        <v>362</v>
-      </c>
-      <c r="N30" s="7">
-        <v>343142</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>26</v>
-      </c>
-      <c r="D31" s="7">
-        <v>30585</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H31" s="7">
-        <v>57</v>
-      </c>
-      <c r="I31" s="7">
-        <v>40486</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M31" s="7">
-        <v>83</v>
-      </c>
-      <c r="N31" s="7">
-        <v>71071</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="7">
-        <v>8</v>
-      </c>
-      <c r="D32" s="7">
-        <v>8856</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H32" s="7">
-        <v>32</v>
-      </c>
-      <c r="I32" s="7">
-        <v>21465</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M32" s="7">
-        <v>40</v>
-      </c>
-      <c r="N32" s="7">
-        <v>30320</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1458</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1516602</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2373</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1683286</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M33" s="7">
-        <v>3831</v>
-      </c>
-      <c r="N33" s="7">
-        <v>3199888</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>206</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
